--- a/jpcore-r4/main/StructureDefinition-jp-observation-physicalexam.xlsx
+++ b/jpcore-r4/main/StructureDefinition-jp-observation-physicalexam.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.1.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/main/StructureDefinition-jp-observation-physicalexam.xlsx
+++ b/jpcore-r4/main/StructureDefinition-jp-observation-physicalexam.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2-dev</t>
+    <t>1.1.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/main/StructureDefinition-jp-observation-physicalexam.xlsx
+++ b/jpcore-r4/main/StructureDefinition-jp-observation-physicalexam.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-26</t>
+    <t>2023-10-31</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/main/StructureDefinition-jp-observation-physicalexam.xlsx
+++ b/jpcore-r4/main/StructureDefinition-jp-observation-physicalexam.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3363" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3363" uniqueCount="520">
   <si>
     <t>Property</t>
   </si>
@@ -421,9 +421,6 @@
 </t>
   </si>
   <si>
-    <t>このObservationが親イベントの一部を成す要素であるとき、その親イベントに関する情報【詳細参照】</t>
-  </si>
-  <si>
     <t>このObservationが親イベントの一部を成す要素であるとき、その親イベントに関する情報</t>
   </si>
   <si>
@@ -440,9 +437,6 @@
   </si>
   <si>
     <t>Observation.status</t>
-  </si>
-  <si>
-    <t>結果の状態【詳細参照】</t>
   </si>
   <si>
     <t>結果の状態</t>
@@ -485,9 +479,6 @@
 </t>
   </si>
   <si>
-    <t>このObservationを分類するコード【詳細参照】</t>
-  </si>
-  <si>
     <t>このObservationを分類するコード</t>
   </si>
   <si>
@@ -776,9 +767,6 @@
 </t>
   </si>
   <si>
-    <t>このObservationの対象を特定するコード【詳細参照】</t>
-  </si>
-  <si>
     <t>このObservationの対象を特定するコード</t>
   </si>
   <si>
@@ -898,9 +886,6 @@
 </t>
   </si>
   <si>
-    <t>このObservationの対象となる患者や患者群、機器、場所に関する情報【詳細参照】</t>
-  </si>
-  <si>
     <t>このObservationの対象となる患者や患者群、機器、場所に関する情報</t>
   </si>
   <si>
@@ -929,9 +914,6 @@
 </t>
   </si>
   <si>
-    <t>配偶者、親、胎児、ドナーなど、このObservationのsubject要素が実際の対象でない場合、その実際の対象に関する情報【詳細参照】</t>
-  </si>
-  <si>
     <t>配偶者、親、胎児、ドナーなど、このObservationのsubject要素が実際の対象でない場合、その実際の対象に関する情報</t>
   </si>
   <si>
@@ -952,9 +934,6 @@
 </t>
   </si>
   <si>
-    <t>診察や入院など、このObservationが実施されるきっかけとなった診療イベントに関する情報【詳細参照】</t>
-  </si>
-  <si>
     <t>診察や入院など、このObservationが実施されるきっかけとなった診療イベントに関する情報</t>
   </si>
   <si>
@@ -987,9 +966,6 @@
 Period</t>
   </si>
   <si>
-    <t>取得された結果が臨床的に確定された日時または期間【詳細参照】</t>
-  </si>
-  <si>
     <t>取得された結果が臨床的に確定された日時または期間</t>
   </si>
   <si>
@@ -1019,9 +995,6 @@
 </t>
   </si>
   <si>
-    <t>このバージョンのObservationが医療者に提供された日時。通常、結果を確認し検証後に提供される日時【詳細参照】</t>
-  </si>
-  <si>
     <t>このバージョンのObservationが医療者に提供された日時。通常、結果を確認し検証後に提供される日時</t>
   </si>
   <si>
@@ -1044,9 +1017,6 @@
 </t>
   </si>
   <si>
-    <t>このObservationの責任者/実施者に関する情報【詳細参照】</t>
-  </si>
-  <si>
     <t>このObservationの責任者/実施者に関する情報</t>
   </si>
   <si>
@@ -1119,9 +1089,6 @@
     <t>Observation.dataAbsentReason</t>
   </si>
   <si>
-    <t>このObservationのvalue[x]要素に期待される結果が存在しなかった場合、その理由【詳細参照】</t>
-  </si>
-  <si>
     <t>このObservationのvalue[x]要素に期待される結果が存在しなかった場合、その理由</t>
   </si>
   <si>
@@ -1154,9 +1121,6 @@
 </t>
   </si>
   <si>
-    <t>高、低、正常等の結果のカテゴリ分けした評価【詳細参照】</t>
-  </si>
-  <si>
     <t>高、低、正常等の結果のカテゴリ分けした評価</t>
   </si>
   <si>
@@ -1191,9 +1155,6 @@
 </t>
   </si>
   <si>
-    <t>このObservationに関するコメント【詳細参照】</t>
-  </si>
-  <si>
     <t>このObservationに関するコメント</t>
   </si>
   <si>
@@ -1262,9 +1223,6 @@
 </t>
   </si>
   <si>
-    <t>このObservationに使われた検体/標本に関する情報【詳細参照】</t>
-  </si>
-  <si>
     <t>このObservationに使われた検体/標本に関する情報</t>
   </si>
   <si>
@@ -1290,9 +1248,6 @@
 </t>
   </si>
   <si>
-    <t>このObservationでデータを得るために使われた測定機器に関する情報【詳細参照】</t>
-  </si>
-  <si>
     <t>このObservationでデータを得るために使われた測定機器に関する情報</t>
   </si>
   <si>
@@ -1316,9 +1271,6 @@
   <si>
     <t xml:space="preserve">BackboneElement
 </t>
-  </si>
-  <si>
-    <t>基準範囲との比較による結果の解釈方法のガイダンス【詳細参照】</t>
   </si>
   <si>
     <t>基準範囲との比較による結果の解釈方法のガイダンス</t>
@@ -1494,9 +1446,6 @@
 </t>
   </si>
   <si>
-    <t>このObservationに関連する子リソースに関する情報。このObservationに関連する/属するパネル検査や検査セットなどのObservationグループ【詳細参照】</t>
-  </si>
-  <si>
     <t>このObservationに関連する子リソースに関する情報。このObservationに関連する/属するパネル検査や検査セットなどのObservationグループ</t>
   </si>
   <si>
@@ -1514,9 +1463,6 @@
   <si>
     <t xml:space="preserve">Reference(DocumentReference|ImagingStudy|Media|QuestionnaireResponse|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Observation_Common|MolecularSequence|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Observation_PhysicalExam)
 </t>
-  </si>
-  <si>
-    <t>このObservationの結果の導出元に関する情報。例えば、画像検査から取得された結果となる場合その導出元となる画像検査結果を示すImagingStudyリソース【詳細参照】</t>
   </si>
   <si>
     <t>このObservationの結果の導出元に関する情報。例えば、画像検査から取得された結果となる場合その導出元となる画像検査結果を示すImagingStudyリソース</t>
@@ -3405,10 +3351,10 @@
         <v>128</v>
       </c>
       <c r="M12" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="N12" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3473,16 +3419,16 @@
         <v>64</v>
       </c>
       <c r="AK12" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AL12" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM12" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="AL12" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM12" t="s" s="2">
+      <c r="AN12" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="AN12" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>41</v>
@@ -3493,10 +3439,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3522,16 +3468,16 @@
         <v>72</v>
       </c>
       <c r="L13" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="N13" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="O13" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>41</v>
@@ -3556,14 +3502,14 @@
         <v>41</v>
       </c>
       <c r="X13" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="Z13" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="Y13" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="Z13" t="s" s="2">
-        <v>141</v>
-      </c>
       <c r="AA13" t="s" s="2">
         <v>41</v>
       </c>
@@ -3580,7 +3526,7 @@
         <v>41</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>52</v>
@@ -3595,19 +3541,19 @@
         <v>64</v>
       </c>
       <c r="AK13" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AL13" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AM13" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="AL13" t="s" s="2">
+      <c r="AN13" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="AM13" t="s" s="2">
+      <c r="AO13" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="AN13" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="AO13" t="s" s="2">
-        <v>146</v>
       </c>
       <c r="AP13" t="s" s="2">
         <v>41</v>
@@ -3615,10 +3561,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3641,19 +3587,19 @@
         <v>41</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="N14" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="O14" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>41</v>
@@ -3682,23 +3628,23 @@
       </c>
       <c r="Y14" s="2"/>
       <c r="Z14" t="s" s="2">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AC14" s="2"/>
       <c r="AD14" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>39</v>
@@ -3722,10 +3668,10 @@
         <v>41</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="AP14" t="s" s="2">
         <v>41</v>
@@ -3733,13 +3679,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>41</v>
@@ -3761,19 +3707,19 @@
         <v>41</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="L15" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="O15" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>41</v>
@@ -3798,11 +3744,11 @@
         <v>41</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Y15" s="2"/>
       <c r="Z15" t="s" s="2">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>41</v>
@@ -3820,7 +3766,7 @@
         <v>41</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>39</v>
@@ -3844,10 +3790,10 @@
         <v>41</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>41</v>
@@ -3855,10 +3801,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3881,13 +3827,13 @@
         <v>41</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3938,7 +3884,7 @@
         <v>41</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>39</v>
@@ -3962,7 +3908,7 @@
         <v>41</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>41</v>
@@ -3973,10 +3919,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4005,7 +3951,7 @@
         <v>99</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="N17" t="s" s="2">
         <v>101</v>
@@ -4046,19 +3992,19 @@
         <v>41</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>39</v>
@@ -4082,7 +4028,7 @@
         <v>41</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>41</v>
@@ -4093,10 +4039,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4119,19 +4065,19 @@
         <v>53</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="N18" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="O18" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>41</v>
@@ -4180,7 +4126,7 @@
         <v>41</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>39</v>
@@ -4201,10 +4147,10 @@
         <v>41</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>41</v>
@@ -4215,10 +4161,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4241,13 +4187,13 @@
         <v>41</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4298,7 +4244,7 @@
         <v>41</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>39</v>
@@ -4322,7 +4268,7 @@
         <v>41</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>41</v>
@@ -4333,10 +4279,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4365,7 +4311,7 @@
         <v>99</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="N20" t="s" s="2">
         <v>101</v>
@@ -4406,19 +4352,19 @@
         <v>41</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="AD20" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>39</v>
@@ -4442,7 +4388,7 @@
         <v>41</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>41</v>
@@ -4453,10 +4399,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4482,23 +4428,23 @@
         <v>66</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="O21" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>41</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="S21" t="s" s="2">
         <v>41</v>
@@ -4540,7 +4486,7 @@
         <v>41</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>39</v>
@@ -4561,10 +4507,10 @@
         <v>41</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>41</v>
@@ -4575,10 +4521,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4601,16 +4547,16 @@
         <v>53</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4660,7 +4606,7 @@
         <v>41</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>39</v>
@@ -4681,10 +4627,10 @@
         <v>41</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>41</v>
@@ -4695,10 +4641,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4724,21 +4670,21 @@
         <v>72</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>41</v>
@@ -4780,7 +4726,7 @@
         <v>41</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>39</v>
@@ -4801,10 +4747,10 @@
         <v>41</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>41</v>
@@ -4815,10 +4761,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4841,17 +4787,17 @@
         <v>53</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>41</v>
@@ -4900,7 +4846,7 @@
         <v>41</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>39</v>
@@ -4921,10 +4867,10 @@
         <v>41</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>41</v>
@@ -4935,10 +4881,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4961,19 +4907,19 @@
         <v>53</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="N25" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="O25" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>41</v>
@@ -5022,7 +4968,7 @@
         <v>41</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>39</v>
@@ -5043,10 +4989,10 @@
         <v>41</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>41</v>
@@ -5057,10 +5003,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5083,19 +5029,19 @@
         <v>53</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="O26" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>41</v>
@@ -5144,7 +5090,7 @@
         <v>41</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>39</v>
@@ -5165,10 +5111,10 @@
         <v>41</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>41</v>
@@ -5179,14 +5125,14 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -5205,19 +5151,19 @@
         <v>53</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>41</v>
@@ -5246,7 +5192,7 @@
       </c>
       <c r="Y27" s="2"/>
       <c r="Z27" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>41</v>
@@ -5264,7 +5210,7 @@
         <v>41</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>52</v>
@@ -5279,30 +5225,30 @@
         <v>64</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AL27" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AM27" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AN27" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AO27" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="AL27" t="s" s="2">
+      <c r="AP27" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="AO27" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="AP27" t="s" s="2">
-        <v>254</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5325,13 +5271,13 @@
         <v>41</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5382,7 +5328,7 @@
         <v>41</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>39</v>
@@ -5406,7 +5352,7 @@
         <v>41</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>41</v>
@@ -5417,10 +5363,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5449,7 +5395,7 @@
         <v>99</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="N29" t="s" s="2">
         <v>101</v>
@@ -5490,19 +5436,19 @@
         <v>41</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>39</v>
@@ -5526,7 +5472,7 @@
         <v>41</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>41</v>
@@ -5537,10 +5483,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5563,19 +5509,19 @@
         <v>53</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="N30" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="O30" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>41</v>
@@ -5612,17 +5558,17 @@
         <v>41</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="AC30" s="2"/>
       <c r="AD30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>39</v>
@@ -5643,10 +5589,10 @@
         <v>41</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>41</v>
@@ -5657,13 +5603,13 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D31" t="s" s="2">
         <v>41</v>
@@ -5685,19 +5631,19 @@
         <v>53</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>41</v>
@@ -5722,11 +5668,11 @@
         <v>41</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Y31" s="2"/>
       <c r="Z31" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>41</v>
@@ -5744,7 +5690,7 @@
         <v>41</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>39</v>
@@ -5765,10 +5711,10 @@
         <v>41</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>41</v>
@@ -5779,10 +5725,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5805,13 +5751,13 @@
         <v>41</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5862,7 +5808,7 @@
         <v>41</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>39</v>
@@ -5886,7 +5832,7 @@
         <v>41</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>41</v>
@@ -5897,10 +5843,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5929,7 +5875,7 @@
         <v>99</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="N33" t="s" s="2">
         <v>101</v>
@@ -5970,19 +5916,19 @@
         <v>41</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>39</v>
@@ -6006,7 +5952,7 @@
         <v>41</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>41</v>
@@ -6017,10 +5963,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6046,23 +5992,23 @@
         <v>66</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="O34" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="S34" t="s" s="2">
         <v>41</v>
@@ -6104,7 +6050,7 @@
         <v>41</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>39</v>
@@ -6125,10 +6071,10 @@
         <v>41</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>41</v>
@@ -6139,10 +6085,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6165,16 +6111,16 @@
         <v>53</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6224,7 +6170,7 @@
         <v>41</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>39</v>
@@ -6245,10 +6191,10 @@
         <v>41</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>41</v>
@@ -6259,10 +6205,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6288,21 +6234,21 @@
         <v>72</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>41</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>41</v>
@@ -6344,7 +6290,7 @@
         <v>41</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>39</v>
@@ -6365,10 +6311,10 @@
         <v>41</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>41</v>
@@ -6379,10 +6325,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6405,17 +6351,17 @@
         <v>53</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>41</v>
@@ -6425,7 +6371,7 @@
         <v>41</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="T37" t="s" s="2">
         <v>41</v>
@@ -6464,7 +6410,7 @@
         <v>41</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>39</v>
@@ -6485,10 +6431,10 @@
         <v>41</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>41</v>
@@ -6499,10 +6445,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6525,19 +6471,19 @@
         <v>53</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="N38" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="O38" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>41</v>
@@ -6586,7 +6532,7 @@
         <v>41</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>39</v>
@@ -6607,10 +6553,10 @@
         <v>41</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>41</v>
@@ -6621,10 +6567,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6647,19 +6593,19 @@
         <v>53</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="O39" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>41</v>
@@ -6708,7 +6654,7 @@
         <v>41</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>39</v>
@@ -6729,10 +6675,10 @@
         <v>41</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>41</v>
@@ -6743,10 +6689,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6769,19 +6715,19 @@
         <v>53</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>41</v>
@@ -6830,7 +6776,7 @@
         <v>41</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>39</v>
@@ -6845,19 +6791,19 @@
         <v>64</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="AP40" t="s" s="2">
         <v>41</v>
@@ -6865,10 +6811,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6891,16 +6837,16 @@
         <v>53</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6950,7 +6896,7 @@
         <v>41</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>39</v>
@@ -6971,13 +6917,13 @@
         <v>41</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="AP41" t="s" s="2">
         <v>41</v>
@@ -6985,14 +6931,14 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -7011,19 +6957,19 @@
         <v>53</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>41</v>
@@ -7072,7 +7018,7 @@
         <v>41</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>39</v>
@@ -7087,19 +7033,19 @@
         <v>64</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="AP42" t="s" s="2">
         <v>41</v>
@@ -7107,14 +7053,14 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -7133,19 +7079,19 @@
         <v>53</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>41</v>
@@ -7194,7 +7140,7 @@
         <v>41</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>39</v>
@@ -7209,19 +7155,19 @@
         <v>64</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="AP43" t="s" s="2">
         <v>41</v>
@@ -7229,10 +7175,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7255,16 +7201,16 @@
         <v>53</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7314,7 +7260,7 @@
         <v>41</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>39</v>
@@ -7335,13 +7281,13 @@
         <v>41</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="AP44" t="s" s="2">
         <v>41</v>
@@ -7349,10 +7295,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7375,19 +7321,19 @@
         <v>53</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>41</v>
@@ -7436,7 +7382,7 @@
         <v>41</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>39</v>
@@ -7451,19 +7397,19 @@
         <v>64</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="AP45" t="s" s="2">
         <v>41</v>
@@ -7471,10 +7417,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7497,19 +7443,19 @@
         <v>53</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>41</v>
@@ -7546,17 +7492,17 @@
         <v>41</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="AC46" s="2"/>
       <c r="AD46" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>39</v>
@@ -7565,7 +7511,7 @@
         <v>52</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>64</v>
@@ -7574,30 +7520,30 @@
         <v>41</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP46" t="s" s="2">
-        <v>348</v>
+        <v>338</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="D47" t="s" s="2">
         <v>41</v>
@@ -7619,19 +7565,19 @@
         <v>53</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>41</v>
@@ -7660,7 +7606,7 @@
       </c>
       <c r="Y47" s="2"/>
       <c r="Z47" t="s" s="2">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>41</v>
@@ -7678,7 +7624,7 @@
         <v>41</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>39</v>
@@ -7687,7 +7633,7 @@
         <v>52</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>64</v>
@@ -7696,27 +7642,27 @@
         <v>41</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP47" t="s" s="2">
-        <v>348</v>
+        <v>338</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7739,19 +7685,19 @@
         <v>41</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>41</v>
@@ -7776,13 +7722,13 @@
         <v>41</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>41</v>
@@ -7800,7 +7746,7 @@
         <v>41</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>39</v>
@@ -7809,7 +7755,7 @@
         <v>52</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>64</v>
@@ -7824,7 +7770,7 @@
         <v>95</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>41</v>
@@ -7835,14 +7781,14 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7861,19 +7807,19 @@
         <v>41</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>41</v>
@@ -7898,14 +7844,14 @@
         <v>41</v>
       </c>
       <c r="X49" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="Z49" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="Y49" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="Z49" t="s" s="2">
-        <v>370</v>
-      </c>
       <c r="AA49" t="s" s="2">
         <v>41</v>
       </c>
@@ -7922,7 +7868,7 @@
         <v>41</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>39</v>
@@ -7940,27 +7886,27 @@
         <v>41</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP49" t="s" s="2">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7983,19 +7929,19 @@
         <v>41</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>41</v>
@@ -8044,7 +7990,7 @@
         <v>41</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>39</v>
@@ -8065,10 +8011,10 @@
         <v>41</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>41</v>
@@ -8079,10 +8025,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8105,16 +8051,16 @@
         <v>41</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -8144,7 +8090,7 @@
       </c>
       <c r="Y51" s="2"/>
       <c r="Z51" t="s" s="2">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>41</v>
@@ -8162,7 +8108,7 @@
         <v>41</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>39</v>
@@ -8180,27 +8126,27 @@
         <v>41</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP51" t="s" s="2">
-        <v>390</v>
+        <v>377</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8223,19 +8169,19 @@
         <v>41</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>41</v>
@@ -8264,7 +8210,7 @@
       </c>
       <c r="Y52" s="2"/>
       <c r="Z52" t="s" s="2">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>41</v>
@@ -8282,7 +8228,7 @@
         <v>41</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>39</v>
@@ -8303,10 +8249,10 @@
         <v>41</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>41</v>
@@ -8317,10 +8263,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8343,16 +8289,16 @@
         <v>41</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8402,7 +8348,7 @@
         <v>41</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>39</v>
@@ -8420,27 +8366,27 @@
         <v>41</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP53" t="s" s="2">
-        <v>406</v>
+        <v>392</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8463,16 +8409,16 @@
         <v>41</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8522,7 +8468,7 @@
         <v>41</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>39</v>
@@ -8540,27 +8486,27 @@
         <v>41</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP54" t="s" s="2">
-        <v>415</v>
+        <v>400</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8583,19 +8529,19 @@
         <v>41</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>417</v>
+        <v>402</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>419</v>
+        <v>403</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>420</v>
+        <v>404</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>421</v>
+        <v>405</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>41</v>
@@ -8644,7 +8590,7 @@
         <v>41</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>39</v>
@@ -8656,7 +8602,7 @@
         <v>41</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>422</v>
+        <v>406</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>41</v>
@@ -8665,10 +8611,10 @@
         <v>41</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>423</v>
+        <v>407</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>424</v>
+        <v>408</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>41</v>
@@ -8679,10 +8625,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>425</v>
+        <v>409</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>425</v>
+        <v>409</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8705,13 +8651,13 @@
         <v>41</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8762,7 +8708,7 @@
         <v>41</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>39</v>
@@ -8786,7 +8732,7 @@
         <v>41</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>41</v>
@@ -8797,10 +8743,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>426</v>
+        <v>410</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>426</v>
+        <v>410</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8829,7 +8775,7 @@
         <v>99</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="N57" t="s" s="2">
         <v>101</v>
@@ -8882,7 +8828,7 @@
         <v>41</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>39</v>
@@ -8906,7 +8852,7 @@
         <v>41</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>41</v>
@@ -8917,14 +8863,14 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>427</v>
+        <v>411</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>427</v>
+        <v>411</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>428</v>
+        <v>412</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -8946,10 +8892,10 @@
         <v>98</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>429</v>
+        <v>413</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="N58" t="s" s="2">
         <v>101</v>
@@ -9004,7 +8950,7 @@
         <v>41</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>39</v>
@@ -9039,10 +8985,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9065,13 +9011,13 @@
         <v>41</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>433</v>
+        <v>417</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>434</v>
+        <v>418</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>435</v>
+        <v>419</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -9122,7 +9068,7 @@
         <v>41</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>39</v>
@@ -9131,7 +9077,7 @@
         <v>52</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>436</v>
+        <v>420</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>64</v>
@@ -9143,10 +9089,10 @@
         <v>41</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>437</v>
+        <v>421</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>438</v>
+        <v>422</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>41</v>
@@ -9157,10 +9103,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>439</v>
+        <v>423</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>439</v>
+        <v>423</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9183,13 +9129,13 @@
         <v>41</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>433</v>
+        <v>417</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>440</v>
+        <v>424</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>441</v>
+        <v>425</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -9240,7 +9186,7 @@
         <v>41</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>439</v>
+        <v>423</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>39</v>
@@ -9249,7 +9195,7 @@
         <v>52</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>436</v>
+        <v>420</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>64</v>
@@ -9261,10 +9207,10 @@
         <v>41</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>437</v>
+        <v>421</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>442</v>
+        <v>426</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>41</v>
@@ -9275,10 +9221,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>443</v>
+        <v>427</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>443</v>
+        <v>427</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9301,19 +9247,19 @@
         <v>41</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>445</v>
+        <v>429</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>41</v>
@@ -9341,10 +9287,10 @@
         <v>76</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>449</v>
+        <v>433</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>41</v>
@@ -9362,7 +9308,7 @@
         <v>41</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>443</v>
+        <v>427</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>39</v>
@@ -9380,13 +9326,13 @@
         <v>41</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>451</v>
+        <v>435</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>41</v>
@@ -9397,10 +9343,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>452</v>
+        <v>436</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>452</v>
+        <v>436</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9423,19 +9369,19 @@
         <v>41</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>455</v>
+        <v>439</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>41</v>
@@ -9460,13 +9406,13 @@
         <v>41</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>457</v>
+        <v>441</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>459</v>
+        <v>443</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>41</v>
@@ -9484,7 +9430,7 @@
         <v>41</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>452</v>
+        <v>436</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>39</v>
@@ -9502,13 +9448,13 @@
         <v>41</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>451</v>
+        <v>435</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>41</v>
@@ -9519,10 +9465,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9545,17 +9491,17 @@
         <v>41</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>461</v>
+        <v>445</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>462</v>
+        <v>446</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>463</v>
+        <v>447</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
-        <v>464</v>
+        <v>448</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>41</v>
@@ -9604,7 +9550,7 @@
         <v>41</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>39</v>
@@ -9628,7 +9574,7 @@
         <v>41</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>465</v>
+        <v>449</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>41</v>
@@ -9639,10 +9585,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9665,13 +9611,13 @@
         <v>41</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>467</v>
+        <v>451</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>468</v>
+        <v>452</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9722,7 +9668,7 @@
         <v>41</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>39</v>
@@ -9743,10 +9689,10 @@
         <v>41</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>437</v>
+        <v>421</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>469</v>
+        <v>453</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>41</v>
@@ -9757,10 +9703,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>470</v>
+        <v>454</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>470</v>
+        <v>454</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9783,16 +9729,16 @@
         <v>53</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>471</v>
+        <v>455</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>472</v>
+        <v>456</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>473</v>
+        <v>456</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>474</v>
+        <v>457</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9842,7 +9788,7 @@
         <v>41</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>470</v>
+        <v>454</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>39</v>
@@ -9863,10 +9809,10 @@
         <v>41</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>475</v>
+        <v>458</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>476</v>
+        <v>459</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>41</v>
@@ -9877,10 +9823,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>477</v>
+        <v>460</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>477</v>
+        <v>460</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9903,16 +9849,16 @@
         <v>53</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>478</v>
+        <v>461</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>479</v>
+        <v>462</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>480</v>
+        <v>462</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>481</v>
+        <v>463</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -9962,7 +9908,7 @@
         <v>41</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>477</v>
+        <v>460</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>39</v>
@@ -9983,10 +9929,10 @@
         <v>41</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>475</v>
+        <v>458</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>482</v>
+        <v>464</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>41</v>
@@ -9997,10 +9943,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>483</v>
+        <v>465</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>483</v>
+        <v>465</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10023,19 +9969,19 @@
         <v>53</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>417</v>
+        <v>402</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>484</v>
+        <v>466</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>485</v>
+        <v>467</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>486</v>
+        <v>468</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>487</v>
+        <v>469</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>41</v>
@@ -10084,7 +10030,7 @@
         <v>41</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>483</v>
+        <v>465</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>39</v>
@@ -10105,10 +10051,10 @@
         <v>41</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>488</v>
+        <v>470</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>489</v>
+        <v>471</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>41</v>
@@ -10119,10 +10065,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>490</v>
+        <v>472</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>490</v>
+        <v>472</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10145,13 +10091,13 @@
         <v>41</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -10202,7 +10148,7 @@
         <v>41</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>39</v>
@@ -10226,7 +10172,7 @@
         <v>41</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>41</v>
@@ -10237,10 +10183,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>491</v>
+        <v>473</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>491</v>
+        <v>473</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10269,7 +10215,7 @@
         <v>99</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="N69" t="s" s="2">
         <v>101</v>
@@ -10322,7 +10268,7 @@
         <v>41</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>39</v>
@@ -10346,7 +10292,7 @@
         <v>41</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>41</v>
@@ -10357,14 +10303,14 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>492</v>
+        <v>474</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>492</v>
+        <v>474</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>428</v>
+        <v>412</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -10386,10 +10332,10 @@
         <v>98</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>429</v>
+        <v>413</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="N70" t="s" s="2">
         <v>101</v>
@@ -10444,7 +10390,7 @@
         <v>41</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>39</v>
@@ -10479,10 +10425,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10505,19 +10451,19 @@
         <v>53</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>494</v>
+        <v>476</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>495</v>
+        <v>477</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>496</v>
+        <v>478</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>41</v>
@@ -10546,7 +10492,7 @@
       </c>
       <c r="Y71" s="2"/>
       <c r="Z71" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>41</v>
@@ -10564,7 +10510,7 @@
         <v>41</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>52</v>
@@ -10582,16 +10528,16 @@
         <v>41</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>497</v>
+        <v>479</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="AP71" t="s" s="2">
         <v>41</v>
@@ -10599,10 +10545,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>498</v>
+        <v>480</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>498</v>
+        <v>480</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10625,13 +10571,13 @@
         <v>41</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10682,7 +10628,7 @@
         <v>41</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>39</v>
@@ -10706,7 +10652,7 @@
         <v>41</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>41</v>
@@ -10717,10 +10663,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>499</v>
+        <v>481</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>499</v>
+        <v>481</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10749,7 +10695,7 @@
         <v>99</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="N73" t="s" s="2">
         <v>101</v>
@@ -10790,19 +10736,19 @@
         <v>41</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="AC73" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="AD73" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>39</v>
@@ -10826,7 +10772,7 @@
         <v>41</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>41</v>
@@ -10837,10 +10783,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>500</v>
+        <v>482</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>500</v>
+        <v>482</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10863,19 +10809,19 @@
         <v>53</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="N74" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="O74" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>41</v>
@@ -10912,17 +10858,17 @@
         <v>41</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="AC74" s="2"/>
       <c r="AD74" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>39</v>
@@ -10943,10 +10889,10 @@
         <v>41</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>41</v>
@@ -10957,13 +10903,13 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>501</v>
+        <v>483</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>500</v>
+        <v>482</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D75" t="s" s="2">
         <v>41</v>
@@ -10985,19 +10931,19 @@
         <v>53</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>41</v>
@@ -11022,11 +10968,11 @@
         <v>41</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Y75" s="2"/>
       <c r="Z75" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>41</v>
@@ -11044,7 +10990,7 @@
         <v>41</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>39</v>
@@ -11065,10 +11011,10 @@
         <v>41</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>41</v>
@@ -11079,10 +11025,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>502</v>
+        <v>484</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>503</v>
+        <v>485</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11105,13 +11051,13 @@
         <v>41</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -11162,7 +11108,7 @@
         <v>41</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>39</v>
@@ -11186,7 +11132,7 @@
         <v>41</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>41</v>
@@ -11197,10 +11143,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>504</v>
+        <v>486</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>505</v>
+        <v>487</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11229,7 +11175,7 @@
         <v>99</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="N77" t="s" s="2">
         <v>101</v>
@@ -11270,19 +11216,19 @@
         <v>41</v>
       </c>
       <c r="AB77" t="s" s="2">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="AC77" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="AD77" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>39</v>
@@ -11306,7 +11252,7 @@
         <v>41</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>41</v>
@@ -11317,10 +11263,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>507</v>
+        <v>489</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11346,23 +11292,23 @@
         <v>66</v>
       </c>
       <c r="L78" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="O78" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>41</v>
       </c>
       <c r="Q78" s="2"/>
       <c r="R78" t="s" s="2">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="S78" t="s" s="2">
         <v>41</v>
@@ -11404,7 +11350,7 @@
         <v>41</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>39</v>
@@ -11425,10 +11371,10 @@
         <v>41</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>41</v>
@@ -11439,10 +11385,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>508</v>
+        <v>490</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>509</v>
+        <v>491</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11465,16 +11411,16 @@
         <v>53</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -11524,7 +11470,7 @@
         <v>41</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>39</v>
@@ -11545,10 +11491,10 @@
         <v>41</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>41</v>
@@ -11559,10 +11505,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>510</v>
+        <v>492</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>511</v>
+        <v>493</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11588,21 +11534,21 @@
         <v>72</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>41</v>
       </c>
       <c r="Q80" s="2"/>
       <c r="R80" t="s" s="2">
-        <v>512</v>
+        <v>494</v>
       </c>
       <c r="S80" t="s" s="2">
         <v>41</v>
@@ -11644,7 +11590,7 @@
         <v>41</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>39</v>
@@ -11665,10 +11611,10 @@
         <v>41</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>41</v>
@@ -11679,10 +11625,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>513</v>
+        <v>495</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>514</v>
+        <v>496</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11705,17 +11651,17 @@
         <v>53</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>41</v>
@@ -11725,7 +11671,7 @@
         <v>41</v>
       </c>
       <c r="S81" t="s" s="2">
-        <v>515</v>
+        <v>497</v>
       </c>
       <c r="T81" t="s" s="2">
         <v>41</v>
@@ -11764,7 +11710,7 @@
         <v>41</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>39</v>
@@ -11785,10 +11731,10 @@
         <v>41</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>41</v>
@@ -11799,10 +11745,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>516</v>
+        <v>498</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>517</v>
+        <v>499</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11825,19 +11771,19 @@
         <v>53</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="N82" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L82" t="s" s="2">
+      <c r="O82" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>41</v>
@@ -11886,7 +11832,7 @@
         <v>41</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>39</v>
@@ -11907,10 +11853,10 @@
         <v>41</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>41</v>
@@ -11921,10 +11867,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>518</v>
+        <v>500</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>518</v>
+        <v>500</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11947,19 +11893,19 @@
         <v>53</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="L83" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="O83" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="O83" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>41</v>
@@ -12008,7 +11954,7 @@
         <v>41</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>39</v>
@@ -12029,10 +11975,10 @@
         <v>41</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>41</v>
@@ -12043,10 +11989,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>519</v>
+        <v>501</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>519</v>
+        <v>501</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12069,19 +12015,19 @@
         <v>53</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>520</v>
+        <v>502</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>521</v>
+        <v>503</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>522</v>
+        <v>504</v>
       </c>
       <c r="O84" t="s" s="2">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>41</v>
@@ -12130,7 +12076,7 @@
         <v>41</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>519</v>
+        <v>501</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>39</v>
@@ -12148,27 +12094,27 @@
         <v>41</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>523</v>
+        <v>505</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP84" t="s" s="2">
-        <v>348</v>
+        <v>338</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>524</v>
+        <v>506</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>524</v>
+        <v>506</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12191,19 +12137,19 @@
         <v>41</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>525</v>
+        <v>507</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>526</v>
+        <v>508</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>527</v>
+        <v>509</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>41</v>
@@ -12228,13 +12174,13 @@
         <v>41</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="Z85" t="s" s="2">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>41</v>
@@ -12252,7 +12198,7 @@
         <v>41</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>524</v>
+        <v>506</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>39</v>
@@ -12261,7 +12207,7 @@
         <v>52</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>64</v>
@@ -12276,7 +12222,7 @@
         <v>95</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>41</v>
@@ -12287,14 +12233,14 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>528</v>
+        <v>510</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>528</v>
+        <v>510</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
@@ -12313,19 +12259,19 @@
         <v>41</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>529</v>
+        <v>511</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>530</v>
+        <v>512</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>531</v>
+        <v>513</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>532</v>
+        <v>514</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>41</v>
@@ -12350,14 +12296,14 @@
         <v>41</v>
       </c>
       <c r="X86" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="Z86" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="Y86" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="Z86" t="s" s="2">
-        <v>370</v>
-      </c>
       <c r="AA86" t="s" s="2">
         <v>41</v>
       </c>
@@ -12374,7 +12320,7 @@
         <v>41</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>528</v>
+        <v>510</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>39</v>
@@ -12392,27 +12338,27 @@
         <v>41</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP86" t="s" s="2">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>533</v>
+        <v>515</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>533</v>
+        <v>515</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12438,16 +12384,16 @@
         <v>42</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>534</v>
+        <v>516</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>535</v>
+        <v>517</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>536</v>
+        <v>518</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>537</v>
+        <v>519</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>41</v>
@@ -12496,7 +12442,7 @@
         <v>41</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>533</v>
+        <v>515</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>39</v>
@@ -12517,10 +12463,10 @@
         <v>41</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>423</v>
+        <v>407</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>424</v>
+        <v>408</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>41</v>

--- a/jpcore-r4/main/StructureDefinition-jp-observation-physicalexam.xlsx
+++ b/jpcore-r4/main/StructureDefinition-jp-observation-physicalexam.xlsx
@@ -617,7 +617,7 @@
     <t>http://jpfhir.jp/fhir/core/ValueSet/JP_SimpleObservationCategory_VS</t>
   </si>
   <si>
-    <t xml:space="preserve">value:coding.system}
+    <t xml:space="preserve">value:$this}
 </t>
   </si>
   <si>
@@ -4665,7 +4665,7 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>94</v>

--- a/jpcore-r4/main/StructureDefinition-jp-observation-physicalexam.xlsx
+++ b/jpcore-r4/main/StructureDefinition-jp-observation-physicalexam.xlsx
@@ -282,7 +282,7 @@
   </si>
   <si>
     <t>dom-2:リソースが別のリソースに含まれている場合、ネストされたリソースを含めてはなりません / If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidまたはmeta.lastupdatedを持たないものとします / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}obs-6:databsentrasonは、観察.value [x]が存在しない場合にのみ存在するものとします / dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:visserveration.codeがvisserveration.component.codeと同じ場合、コードに関連付けられている値要素が存在しないでください / If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}</t>
+dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidもmeta.lastupdatedも持ってはならない。 / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}obs-6:databsentrasonは、観察.value [x]が存在しない場合にのみ存在するものとします / dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:visserveration.codeがvisserveration.component.codeと同じ場合、コードに関連付けられている値要素が存在しないでください / If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}</t>
   </si>
   <si>
     <t>Event</t>

--- a/jpcore-r4/main/StructureDefinition-jp-observation-physicalexam.xlsx
+++ b/jpcore-r4/main/StructureDefinition-jp-observation-physicalexam.xlsx
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) (http://jpfhir.jp, office@hlfhir.jp)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
